--- a/AutoDM.xlsx
+++ b/AutoDM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chengcheng Liu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chengcheng Liu\Documents\Untitled Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Child</t>
   </si>
@@ -48,16 +48,29 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,60 +379,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
